--- a/data_schema.xlsx
+++ b/data_schema.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaquinm/Desktop/human_datathon/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6DDEB-4C02-EF4B-BF99-1C7A4E4F279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$C$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$58</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -368,31 +378,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -402,7 +414,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -418,7 +430,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -432,44 +450,51 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -659,25 +684,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="48.63"/>
-    <col customWidth="1" min="2" max="2" width="21.88"/>
-    <col customWidth="1" min="3" max="3" width="44.63"/>
+    <col min="1" max="1" width="52.6640625" customWidth="1"/>
+    <col min="2" max="2" width="77.83203125" customWidth="1"/>
+    <col min="3" max="3" width="101.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -699,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -710,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -721,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -732,7 +762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -743,7 +773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -754,7 +784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -765,7 +795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -776,7 +806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -787,7 +817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -798,7 +828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -809,7 +839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -820,7 +850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -831,7 +861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -842,7 +872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -853,7 +883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -864,7 +894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -875,7 +905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -886,7 +916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -897,7 +927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -908,7 +938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -919,7 +949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
@@ -930,7 +960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -941,7 +971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
@@ -952,7 +982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -963,7 +993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -974,7 +1004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
@@ -985,7 +1015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
@@ -996,7 +1026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>67</v>
       </c>
@@ -1007,7 +1037,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>69</v>
       </c>
@@ -1018,7 +1048,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -1029,7 +1059,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -1040,7 +1070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -1051,7 +1081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>77</v>
       </c>
@@ -1062,7 +1092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>79</v>
       </c>
@@ -1073,7 +1103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
@@ -1084,7 +1114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>83</v>
       </c>
@@ -1095,7 +1125,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>85</v>
       </c>
@@ -1106,7 +1136,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>87</v>
       </c>
@@ -1117,7 +1147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>89</v>
       </c>
@@ -1128,7 +1158,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>75</v>
       </c>
@@ -1139,7 +1169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>90</v>
       </c>
@@ -1150,7 +1180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>92</v>
       </c>
@@ -1161,7 +1191,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -1172,7 +1202,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>75</v>
       </c>
@@ -1183,7 +1213,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>98</v>
       </c>
@@ -1194,7 +1224,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>100</v>
       </c>
@@ -1205,7 +1235,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>101</v>
       </c>
@@ -1216,7 +1246,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>102</v>
       </c>
@@ -1227,7 +1257,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
@@ -1238,7 +1268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" s="6" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
@@ -1249,7 +1279,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>106</v>
       </c>
@@ -1260,7 +1290,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>75</v>
       </c>
@@ -1271,7 +1301,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
@@ -1282,7 +1312,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" s="6" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
@@ -1293,7 +1323,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
@@ -1304,7 +1334,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>114</v>
       </c>
@@ -1316,7 +1346,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$58"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:C58" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_schema.xlsx
+++ b/data_schema.xlsx
@@ -5,25 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaquinm/Desktop/human_datathon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaquinm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6DDEB-4C02-EF4B-BF99-1C7A4E4F279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2A2D2D-A427-2944-BA2D-722209ACE2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictionary" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$58</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mieb0ub5XMwgye8951Gp5xYQCseVg=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="124">
   <si>
     <t>Columnas</t>
   </si>
@@ -43,7 +45,7 @@
     <t>Identificador Unico Universal (UUID) usado para identificar cada caso.</t>
   </si>
   <si>
-    <t>Me identifico (género)</t>
+    <t>Me identifico</t>
   </si>
   <si>
     <t>String</t>
@@ -52,7 +54,7 @@
     <t>Genero autopercibido del encuestado.</t>
   </si>
   <si>
-    <t>Tengo (edad)</t>
+    <t>Tengo</t>
   </si>
   <si>
     <t>Integer</t>
@@ -109,27 +111,12 @@
     <t>El encuestado responde bajo que situación cobra su sueldo en dolares. Quienes no cobran su sueldo en dolares de ninguna manera no llenarán esta columna.</t>
   </si>
   <si>
-    <t>¿Cuál fue el último valor de dólar que tomaron?</t>
-  </si>
-  <si>
-    <t>Integer (Se observan casos en los que el encuestado responde 58.111 en vez de 58111, por lo que se tomaría como un string)</t>
-  </si>
-  <si>
-    <t>El encuestado responde con el valor del dólar al cuál le tomaron su sueldo la última vez.</t>
-  </si>
-  <si>
     <t>¿Qué tan conforme estás con tu sueldo?</t>
   </si>
   <si>
     <t>Valor del 1 al 4 que el encuestado responde en base a que tan conforme se encuentran con su sueldo, siendo 1 = poco conforme y 4 = muy conforme</t>
   </si>
   <si>
-    <t>Cómo creés que está tu sueldo con respecto al último semestre</t>
-  </si>
-  <si>
-    <t>Valor del 1 al 4 que el encuestado responde en base a cómo percibe su sueldo con respecto al último semestre, siendo 1 = poco conforme y 4 = muy conforme</t>
-  </si>
-  <si>
     <t>Recibís algún tipo de bono</t>
   </si>
   <si>
@@ -142,27 +129,6 @@
     <t>El encuestado responde a qué condición están atados sus bonos. Si no reciben bonos deben aclararlo.</t>
   </si>
   <si>
-    <t>¿Tuviste ajustes por inflación durante 2021?</t>
-  </si>
-  <si>
-    <t>El encuestado responde con un No si no recibió un ajuste. Y de haber recibido, deberá responder con qué cantidad. Por ejemplo: Uno, Dos, Tres o Más de tres.</t>
-  </si>
-  <si>
-    <t>¿De qué % fue el ajuste total?</t>
-  </si>
-  <si>
-    <t>El encuestado indica de qué porcentaje fue el ajuste total.</t>
-  </si>
-  <si>
-    <t>¿En qué mes fue el último ajuste?</t>
-  </si>
-  <si>
-    <t>Integer (Hay casos en los que los encuestados respondieron con, por ejemplo, 09 al mes número 9, por lo cuál ésta columna puede tomarse con un String)</t>
-  </si>
-  <si>
-    <t>Número que indica en qué mes el encuestado recibió el último ajuste salarial.</t>
-  </si>
-  <si>
     <t>Años en la empresa actual</t>
   </si>
   <si>
@@ -238,24 +204,12 @@
     <t>El encuestado responde con un número del 1 al 10. 1 = Nada recomendable, 10 = Sumamente recomendable.</t>
   </si>
   <si>
-    <t>Beneficios extra</t>
-  </si>
-  <si>
-    <t>Tipo de beneficios extra que la empresa le brinda a los empleados.</t>
-  </si>
-  <si>
-    <t>¿Cuál es el compromiso que tiene tu empresa con la diversidad, la equidad y la inclusión?</t>
+    <t>¿Cómo calificás las políticas de diversidad e inclusión?</t>
   </si>
   <si>
     <t>El encuestado responde con un número del 1 al 10. 1 = Nada comprometidos. 10 = Sumamente comprometidos.</t>
   </si>
   <si>
-    <t>¿Salir o seguir contestando?</t>
-  </si>
-  <si>
-    <t>El encuestado decide continuar o terminar la encuesta. "Quiero responder más preguntas", "Ya colaboré lo suficiente"</t>
-  </si>
-  <si>
     <t>Nivel de estudios alcanzado</t>
   </si>
   <si>
@@ -316,11 +270,6 @@
     <t>Indica si es un porcentaje de su sueldo, bruto o neto.</t>
   </si>
   <si>
-    <t>El encuestado decide continuar o terminar la encuesta. 
-"Quiero responder más preguntas"
-"Ya colaboré lo suficiente"</t>
-  </si>
-  <si>
     <t>Sufriste o presenciaste situaciones de violencia y/o acoso por motivo de</t>
   </si>
   <si>
@@ -357,22 +306,97 @@
     <t>Número de veces que el encuestado asiste a la oficina a trabajar.</t>
   </si>
   <si>
-    <t>¿Qué tanto sentís que te está apoyando tu empresa/organización durante la pandemia?</t>
-  </si>
-  <si>
-    <t>Respnde del 1 al 10. Siendo 1 = Nada apoyado, y 10 = Completamente apoyado.</t>
-  </si>
-  <si>
-    <t>¿Instauraron algún beneficio nuevo?</t>
-  </si>
-  <si>
-    <t>Indica el tipo de nuevo beneficio instaurado.</t>
+    <t>¿Qué tanto sentís que te está apoyando tu empresa/organización en esta situación?</t>
   </si>
   <si>
     <t>Valor dólar informal semestral</t>
   </si>
   <si>
     <t>Valor del dolar informal (blue) para ese semestre.</t>
+  </si>
+  <si>
+    <t>Automation o funcional?</t>
+  </si>
+  <si>
+    <t>El encuestado responde el tipo de testing que maneja.</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Año de la encuesta.</t>
+  </si>
+  <si>
+    <t>Semestre</t>
+  </si>
+  <si>
+    <t>Para el primer semestre 1, y para el segundo semestre 2.</t>
+  </si>
+  <si>
+    <t>Lenguajes de programación</t>
+  </si>
+  <si>
+    <t>Lenguajes de programación que maneja el encuestado.</t>
+  </si>
+  <si>
+    <t>¿Qué SO usás en tu laptop/PC para trabajar?</t>
+  </si>
+  <si>
+    <t>Responde el OS utilizado.</t>
+  </si>
+  <si>
+    <t>¿Sufriste o presenciaste situaciones de violencia laboral?</t>
+  </si>
+  <si>
+    <t>El encuestado responde en base a su experiencia.</t>
+  </si>
+  <si>
+    <t>Orientación sexual</t>
+  </si>
+  <si>
+    <t>El encuestado responde su orientación sexual.</t>
+  </si>
+  <si>
+    <t>¿Sentís que esto te dificultó el conseguir trabajo?</t>
+  </si>
+  <si>
+    <t>El encuestado responde Si o No. Teniendo en cuenta si posee una discapacidad.</t>
+  </si>
+  <si>
+    <t>¿Cómo venís llevando la cuarentena?</t>
+  </si>
+  <si>
+    <t>Responde del 1 al 4. Siendo 1 = Muy mal, y 4 = Muy bien.</t>
+  </si>
+  <si>
+    <t>¿Tenés hijos/as menores de edad?</t>
+  </si>
+  <si>
+    <t>Responde 0 si no tiene. Caso contrario el número de hijos menores de edad.</t>
+  </si>
+  <si>
+    <t>¿Qué tipo de cuarentena hiciste / estás haciendo?</t>
+  </si>
+  <si>
+    <t>Responde del 1 al 4. Siendo 1 = Muy estricta, y 4 = Poco estricta.</t>
+  </si>
+  <si>
+    <t>¿Cambió tu situación laboral a raíz de la pandemia?</t>
+  </si>
+  <si>
+    <t>El encuestado responde cómo afectó la pandemia su situación laboral.</t>
+  </si>
+  <si>
+    <t>Responde del 1 al 10. Siendo 1 = Nada apoyado, y 10 = Completamente apoyado.</t>
+  </si>
+  <si>
+    <t>¿Cómo se vio afectada tu empresa/organización?</t>
+  </si>
+  <si>
+    <t>Texto libre. El encuestado responde cómo se vió afectada su empresa.</t>
+  </si>
+  <si>
+    <t>¿Cómo venís llevando la pandemia?</t>
   </si>
 </sst>
 </file>
@@ -404,12 +428,12 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,14 +446,8 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -447,8 +465,21 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFB7B7B7"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -464,16 +495,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,24 +726,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="52.6640625" customWidth="1"/>
     <col min="2" max="2" width="77.83203125" customWidth="1"/>
-    <col min="3" max="3" width="101.5" customWidth="1"/>
+    <col min="3" max="3" width="93.1640625" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -728,8 +766,31 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -739,8 +800,31 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -750,8 +834,31 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -761,8 +868,31 @@
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+    </row>
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -772,8 +902,31 @@
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -783,8 +936,31 @@
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -794,151 +970,473 @@
       <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -948,52 +1446,167 @@
       <c r="C22" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -1003,8 +1616,31 @@
       <c r="C27" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
@@ -1014,8 +1650,31 @@
       <c r="C28" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
@@ -1025,328 +1684,1119 @@
       <c r="C29" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+    </row>
+    <row r="43" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="C43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+    </row>
+    <row r="44" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+    </row>
+    <row r="45" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+    </row>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+    </row>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+    </row>
+    <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+    </row>
+    <row r="57" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+    </row>
+    <row r="58" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+    </row>
+    <row r="59" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+      <c r="C60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="C61" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="6" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C58" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>